--- a/TrialTypes/doc-log.xlsx
+++ b/TrialTypes/doc-log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="7480" windowHeight="2770"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="7480" windowHeight="2770"/>
   </bookViews>
   <sheets>
     <sheet name="doc-log" sheetId="1" r:id="rId1"/>
@@ -17,24 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'doc-log'!$A$1:$D$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">DigitSpan			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FreeRecallVDR			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewSession			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video			</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Trail Type</t>
   </si>
@@ -78,60 +66,6 @@
     <t>TwoLetterStem</t>
   </si>
   <si>
-    <t xml:space="preserve">CopyPic			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cue			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CuedRecall			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruct			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WordPair			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyWordPair			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CuePic			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FreeRecall			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio	x		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaptionedPic			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultipleChoice			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passage			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youtube			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CuedRecallPic			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOL			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultipleChoicePic			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyWordPairDelayed			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FontSize			</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -145,6 +79,72 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>CaptionedPic</t>
+  </si>
+  <si>
+    <t>CopyPic</t>
+  </si>
+  <si>
+    <t>CopyWordPair</t>
+  </si>
+  <si>
+    <t>CopyWordPairDelayed</t>
+  </si>
+  <si>
+    <t>Cue</t>
+  </si>
+  <si>
+    <t>CuedRecall</t>
+  </si>
+  <si>
+    <t>CuedRecallPic</t>
+  </si>
+  <si>
+    <t>CuePic</t>
+  </si>
+  <si>
+    <t>DigitSpan</t>
+  </si>
+  <si>
+    <t>FontSize</t>
+  </si>
+  <si>
+    <t>FreeRecall</t>
+  </si>
+  <si>
+    <t>FreeRecallVDR</t>
+  </si>
+  <si>
+    <t>Instruct</t>
+  </si>
+  <si>
+    <t>JOL</t>
+  </si>
+  <si>
+    <t>MultipleChoice</t>
+  </si>
+  <si>
+    <t>MultipleChoicePic</t>
+  </si>
+  <si>
+    <t>NewSession</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>WordPair</t>
+  </si>
+  <si>
+    <t>Youtube</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,48 +957,48 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1006,214 +1006,222 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" ref="D31" si="0">IF(RIGHT(A31,1)&gt;0,RIGHT(A31,1),"")</f>
-        <v xml:space="preserve">	</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D31">
+    <sortState ref="A2:D31">
+      <sortCondition ref="D1:D31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TrialTypes/doc-log.xlsx
+++ b/TrialTypes/doc-log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Garcia\Dropbox\Programming\CollectorGit\TrialTypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\Favorites\Desktop\Collector\TrialTypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="7480" windowHeight="2770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="doc-log" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'doc-log'!$A$1:$D$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t xml:space="preserve">DigitSpan			</t>
   </si>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">FreeRecall			</t>
   </si>
   <si>
-    <t xml:space="preserve">Audio	x		</t>
-  </si>
-  <si>
     <t xml:space="preserve">CaptionedPic			</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t xml:space="preserve">FontSize			</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -145,6 +139,18 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Emanuel (waiting for response from Tyson)</t>
   </si>
 </sst>
 </file>
@@ -943,19 +949,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,152 +975,174 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1151,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1160,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1140,13 +1169,16 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1155,13 +1187,13 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1170,13 +1202,13 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1217,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1226,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1235,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>

--- a/TrialTypes/doc-log.xlsx
+++ b/TrialTypes/doc-log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t xml:space="preserve">DigitSpan			</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Emanuel (waiting for response from Tyson)</t>
+  </si>
+  <si>
+    <t>Mikey</t>
   </si>
 </sst>
 </file>
@@ -951,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,10 +1042,9 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1078,9 +1080,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1118,7 +1118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1134,15 +1134,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1154,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1163,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1172,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1181,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1187,13 +1190,13 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1202,13 +1205,13 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1220,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1229,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1238,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
